--- a/ExcelMvc/Sample.Views/Forbes2000.xlsx
+++ b/ExcelMvc/Sample.Views/Forbes2000.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="315" windowWidth="22590" windowHeight="9465"/>
+    <workbookView xWindow="45" yWindow="315" windowWidth="22590" windowHeight="9465" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Forbes" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="58">
   <si>
     <t xml:space="preserve">Company </t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -210,6 +210,9 @@
   </si>
   <si>
     <t>Update Interval Seconds</t>
+  </si>
+  <si>
+    <t>End Cell</t>
   </si>
 </sst>
 </file>
@@ -3776,7 +3779,7 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:AE2526"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
@@ -54641,16 +54644,16 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.85546875" style="7" customWidth="1"/>
     <col min="2" max="2" width="24.5703125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="37" style="7" customWidth="1"/>
     <col min="5" max="5" width="45" style="7" customWidth="1"/>
     <col min="6" max="6" width="72" style="7" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" style="7" customWidth="1"/>
@@ -55635,7 +55638,9 @@
       <c r="C76" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D76" s="10"/>
+      <c r="D76" s="70" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="str">
@@ -55648,7 +55653,10 @@
       <c r="C77" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D77" s="9"/>
+      <c r="D77" s="9" t="str">
+        <f ca="1">CELL("address",References!C11)</f>
+        <v>[Forbes2000.xlsx]References!$C$11</v>
+      </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">

--- a/ExcelMvc/Sample.Views/Forbes2000.xlsx
+++ b/ExcelMvc/Sample.Views/Forbes2000.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="315" windowWidth="22590" windowHeight="9465" activeTab="3"/>
+    <workbookView xWindow="45" yWindow="315" windowWidth="22590" windowHeight="9465"/>
   </bookViews>
   <sheets>
     <sheet name="Forbes" sheetId="1" r:id="rId1"/>
@@ -3779,7 +3779,7 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:AE2526"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
@@ -54644,7 +54644,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>

--- a/ExcelMvc/Sample.Views/Forbes2000.xlsx
+++ b/ExcelMvc/Sample.Views/Forbes2000.xlsx
@@ -18,6 +18,7 @@
     <definedName name="ExcelMvc.Form.Company">ExcelMvc!$A$35:$F$49</definedName>
     <definedName name="ExcelMvc.Form.CompanyTransposed">ExcelMvc!$A$54:$F$62</definedName>
     <definedName name="ExcelMvc.Form.Settings">ExcelMvc!$A$80:$D$81</definedName>
+    <definedName name="ExcelMvc.Table.AppSettings">ExcelMvc!$A$85:$D$87</definedName>
     <definedName name="ExcelMvc.Table.Company">ExcelMvc!$A$2:$F$16</definedName>
     <definedName name="ExcelMvc.Table.CompanyFilters">ExcelMvc!$A$76:$D$77</definedName>
     <definedName name="ExcelMvc.Table.CompanyTransposed">ExcelMvc!$A$21:$F$30</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="60">
   <si>
     <t xml:space="preserve">Company </t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -214,6 +215,12 @@
   <si>
     <t>End Cell</t>
   </si>
+  <si>
+    <t>ExcelMvc.Table.AppSettings</t>
+  </si>
+  <si>
+    <t>(retrieved from App.config)</t>
+  </si>
 </sst>
 </file>
 
@@ -222,7 +229,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[Blue]#,##0.00;[Red]\-#,##0.00"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,8 +302,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Segoe Script"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -306,6 +320,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,7 +437,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -589,6 +609,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -667,8 +696,8 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>438149</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>67556</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>267581</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="ExcelMvcRunCommandAction" textlink="">
       <xdr:nvSpPr>
@@ -733,8 +762,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>549376</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>67556</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>267581</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="ExcelMvcRunCommandAction" textlink="">
       <xdr:nvSpPr>
@@ -795,8 +824,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>70473</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>67556</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>267581</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="ExcelMvcRunCommandAction" textlink="">
       <xdr:nvSpPr>
@@ -892,8 +921,8 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>91061</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>67556</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>267581</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="ExcelMvcRunCommandAction" textlink="">
       <xdr:nvSpPr>
@@ -970,8 +999,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1525145</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>67556</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>267581</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="ExcelMvcRunCommandAction" textlink="">
       <xdr:nvSpPr>
@@ -3781,7 +3810,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3793,11 +3822,11 @@
     <col min="5" max="5" width="16.7109375" style="19" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" style="19" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" style="19" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" style="19" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="22" style="1" customWidth="1"/>
     <col min="10" max="27" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="9.140625" style="1"/>
-    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.140625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="14.28515625" style="1" customWidth="1"/>
     <col min="30" max="30" width="25.85546875" style="1" customWidth="1"/>
     <col min="31" max="31" width="17.85546875" style="1" customWidth="1"/>
     <col min="32" max="16384" width="9.140625" style="1"/>
@@ -3833,15 +3862,15 @@
       <c r="AB1" s="23"/>
       <c r="AC1" s="23"/>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" ht="23.25" x14ac:dyDescent="0.6">
       <c r="B2" s="50"/>
       <c r="C2" s="50"/>
       <c r="D2" s="50"/>
       <c r="E2" s="50"/>
       <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
       <c r="L2" s="23"/>
@@ -3860,18 +3889,20 @@
       <c r="Y2" s="23"/>
       <c r="Z2" s="23"/>
       <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
+      <c r="AB2" s="23" t="s">
+        <v>59</v>
+      </c>
       <c r="AC2" s="23"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" ht="23.25" x14ac:dyDescent="0.6">
       <c r="B3" s="50"/>
       <c r="C3" s="50"/>
       <c r="D3" s="50"/>
       <c r="E3" s="50"/>
       <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
       <c r="J3" s="23"/>
       <c r="K3" s="23"/>
       <c r="L3" s="23"/>
@@ -31739,6 +31770,10 @@
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
+  <mergeCells count="2">
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <drawing r:id="rId3"/>
@@ -54642,10 +54677,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:L81"/>
+  <dimension ref="A1:L87"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E85" sqref="E85"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -54689,7 +54724,7 @@
       <c r="F2" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="77"/>
+      <c r="G2" s="80"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="str">
@@ -54707,7 +54742,7 @@
       </c>
       <c r="E3" s="28"/>
       <c r="F3" s="29"/>
-      <c r="G3" s="78"/>
+      <c r="G3" s="81"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="str">
@@ -54728,7 +54763,7 @@
         <f ca="1">CONCATENATE(CELL("address",References!B2), ":", CELL("address",References!B100))</f>
         <v>[Forbes2000.xlsx]References!$B$2:[Forbes2000.xlsx]References!$B$100</v>
       </c>
-      <c r="G4" s="79"/>
+      <c r="G4" s="82"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="str">
@@ -54749,7 +54784,7 @@
         <f ca="1">CONCATENATE(CELL("address",References!A2), ":", CELL("address",References!A100))</f>
         <v>[Forbes2000.xlsx]References!$A$2:[Forbes2000.xlsx]References!$A$100</v>
       </c>
-      <c r="G5" s="80"/>
+      <c r="G5" s="83"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="str">
@@ -55688,6 +55723,42 @@
       </c>
       <c r="D81" s="9"/>
       <c r="E81" s="8"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85" s="10"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="57" t="str">
+        <f ca="1">CELL("address",Forbes!G2)</f>
+        <v>[Forbes2000.xlsx]Forbes!$G$2</v>
+      </c>
+      <c r="B86" s="77" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="D86" s="59"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="12"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
